--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162204</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合</t>
+          <t>易方达价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162208</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利首选企业股票</t>
+          <t>泰达宏利行业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162202</t>
+          <t>162208</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利周期混合</t>
+          <t>泰达宏利首选企业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>162202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达价值成长混合</t>
+          <t>泰达宏利周期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>001721</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信智能制造股票</t>
+          <t>工银瑞信新增益混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001721</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信新增益混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>89.62</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>88.01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>162208</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>泰达宏利首选企业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>001716</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>工银新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>001997</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>工银新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001716</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合A</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001997</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合C</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162208</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰达宏利首选企业股票</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.05</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.67</v>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.7</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.23</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2679,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2695,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2711,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,623 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6808</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6060</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162204</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利行业精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4656</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3534</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162202</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利周期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1865</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1632</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1632</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1082,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1133,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>011886</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>87.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8111</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1171,339 +677,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>011887</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>87.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4910</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1862</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001716</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>47.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009428</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001997</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>47.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009429</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1518,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1539,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1569,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>011104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>光大保德信智能汽车主题股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2151</t>
+          <t>0.6179</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1607,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162208</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利首选企业股票</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2119</t>
+          <t>0.2401</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1645,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1209</t>
+          <t>0.1952</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1683,36 +885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0682</t>
+          <t>0.0732</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1721,36 +923,188 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>010589</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>鹏扬景安一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0508</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2137,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011104</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信智能汽车主题股票</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6179</t>
+          <t>0.2151</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2175,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>162208</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>泰达宏利首选企业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2401</t>
+          <t>0.2119</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2213,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1952</t>
+          <t>0.1209</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2251,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2289,188 +1643,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010589</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景安一年持有期混合A</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010543</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加科鑫混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>41.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010590</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬景安一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010544</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加科鑫混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>41.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,7 +1707,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2535,36 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011886</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.8111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2573,35 +1775,339 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011887</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>89.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.4910</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2616,128 +2122,622 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.83</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603960-克来机电.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
